--- a/NformTester/NformTester/Keywordscripts/600.10.20.80_DataPointsNameIsEditableOrNot.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.80_DataPointsNameIsEditableOrNot.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8030" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8032" uniqueCount="888">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3903,51 +3903,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS (10.146.83.5)"</t>
+    <t>$NAME_WRITEDATA_device$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4116,7 +4123,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4127,8 +4134,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4167,10 +4177,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
@@ -4494,14 +4509,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="35.25" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
@@ -4513,10 +4528,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>789</v>
@@ -4557,10 +4572,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4581,10 +4596,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4615,10 +4630,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4645,7 +4660,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B5" s="8">
         <v>41743</v>
@@ -4669,10 +4684,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4717,7 +4732,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4740,7 +4755,7 @@
         <v>870</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>826</v>
@@ -4755,7 +4770,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -4858,7 +4873,7 @@
         <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -5150,7 +5165,7 @@
         <v>56</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="4"/>
@@ -5160,6 +5175,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>887</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -6087,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -6228,7 +6249,7 @@
         <v>56</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="4"/>
@@ -6931,7 +6952,7 @@
         <v>2</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -7298,7 +7319,7 @@
         <v>13</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="4"/>
@@ -7548,7 +7569,7 @@
         <v>13</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="4"/>
